--- a/ClusteringComparisons.xlsx
+++ b/ClusteringComparisons.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b75b1c6a55d49cb/College/JuniorYear/CS5140/Grade Data Mining Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b75b1c6a55d49cb/College/JuniorYear/CS5140/GradeDataMiningProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{913A433D-B69A-4EAA-94D6-DA86972769AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CF4C7A-A80C-4453-AFB4-06CB1459EB54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="26205" windowHeight="15870" xr2:uid="{EAC65B56-AE46-4134-8008-D9754F6ED248}"/>
+    <workbookView xWindow="11655" yWindow="1395" windowWidth="26100" windowHeight="16545" xr2:uid="{5202D031-F85A-4FE1-8F4D-4AC9EF6C0155}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="27">
+  <si>
+    <t>kmeans++</t>
+  </si>
   <si>
     <t>Cluster1 Metric</t>
   </si>
@@ -64,6 +68,51 @@
   </si>
   <si>
     <t>Wage</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Gonzales</t>
+  </si>
+  <si>
+    <t>Heirarchical Single-Link</t>
+  </si>
+  <si>
+    <t>Heirarchical Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kMeansPP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gonzales</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>FMI</t>
+  </si>
+  <si>
+    <t>Grades</t>
+  </si>
+  <si>
+    <t>Research Instrests</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CompleteLink</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SingleLink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompleteLink </t>
   </si>
 </sst>
 </file>
@@ -414,213 +463,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC86C0B3-F2D2-46B9-8969-59E4097D4F23}">
-  <dimension ref="A1:G37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BCB676-A1E0-4A74-B0E0-7BA2C07FDFD0}">
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>0.30620864767206202</v>
-      </c>
-      <c r="F2">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="G2">
-        <v>0.77936079142185399</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>0.30490117845701897</v>
-      </c>
-      <c r="F3">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="G3">
-        <v>0.75695950808225498</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>0.26513403647549899</v>
-      </c>
-      <c r="F4">
-        <v>0.80952380952380898</v>
-      </c>
-      <c r="G4">
-        <v>0.73135872671419999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="F5">
-        <v>0.80952380952380898</v>
-      </c>
-      <c r="G5">
-        <v>0.70815450643776801</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>0.294973544973544</v>
-      </c>
-      <c r="F6">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="G6">
-        <v>0.69987910124372499</v>
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0.46698717948717899</v>
+        <v>0.318</v>
       </c>
       <c r="F7">
-        <v>0.61904761904761896</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G7">
-        <v>0.64746607642499798</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>0.46566110397945998</v>
+        <v>0.66</v>
       </c>
       <c r="F8">
-        <v>0.61904761904761896</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G8">
-        <v>0.63693817274329001</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -629,36 +661,36 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0.46891025641025602</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F9">
-        <v>0.54761904761904701</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G9">
-        <v>0.63238213539094901</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0.41897818871503001</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F10">
-        <v>0.54761904761904701</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G10">
-        <v>0.60640003649302499</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,275 +698,275 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>0.30332363714716598</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F11">
-        <v>0.57142857142857095</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G11">
-        <v>0.57410051017597796</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
       <c r="E12">
-        <v>0.317105263157894</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F12">
-        <v>0.476190476190476</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G12">
-        <v>0.55998740014756598</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>0.32826695895749602</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F13">
-        <v>0.69047619047619002</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G13">
-        <v>0.55584314158026304</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0.27593402225755098</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F14">
-        <v>0.52380952380952295</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G14">
-        <v>0.55440365102029399</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0.182547932547932</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="F15">
-        <v>0.452380952380952</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G15">
-        <v>0.55255118539951897</v>
+        <v>0.83499999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>0.23618762993762901</v>
+        <v>0.32</v>
       </c>
       <c r="F16">
-        <v>0.476190476190476</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G16">
-        <v>0.54835923551185495</v>
+        <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>0.238006756756756</v>
+        <v>0.32</v>
       </c>
       <c r="F17">
-        <v>0.476190476190476</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G17">
-        <v>0.54338809762922902</v>
+        <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>0.20887726071936599</v>
+        <v>0.32</v>
       </c>
       <c r="F18">
-        <v>0.476190476190476</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G18">
-        <v>0.53826464584375899</v>
+        <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>0.31269841269841198</v>
+        <v>0.32</v>
       </c>
       <c r="F19">
-        <v>0.54761904761904701</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G19">
-        <v>0.53290110168909699</v>
+        <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>0.39732142857142799</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="F20">
-        <v>0.61904761904761896</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G20">
-        <v>0.52441229347625495</v>
+        <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>0.20296500954395599</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="F21">
-        <v>0.452380952380952</v>
+        <v>0.81</v>
       </c>
       <c r="G21">
-        <v>0.52186301066107199</v>
+        <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0.174621520016256</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="F22">
-        <v>0.42857142857142799</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G22">
-        <v>0.52047508004042697</v>
+        <v>0.76700000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -948,21 +980,21 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>0.3521421107628</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="F23">
-        <v>0.61904761904761896</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G23">
-        <v>0.51559864148505696</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -971,321 +1003,1949 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>0.19193930772878101</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="F24">
-        <v>0.476190476190476</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G24">
-        <v>0.50660901219886401</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>0.16588456588456499</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="F25">
-        <v>0.452380952380952</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G25">
-        <v>0.50432928532241095</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>0.14998040467965201</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="F26">
-        <v>0.42857142857142799</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G26">
-        <v>0.47360330752593799</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>0.23945605119518101</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="F27">
-        <v>0.71428571428571397</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G27">
-        <v>0.470399867537804</v>
+        <v>0.71899999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>0.17240457841961601</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="F28">
-        <v>0.33333333333333298</v>
+        <v>0.81</v>
       </c>
       <c r="G28">
-        <v>0.44773104417236698</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>0.162316162316162</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="F29">
-        <v>0.35714285714285698</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G29">
-        <v>0.44124907812967101</v>
+        <v>0.68700000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>0.26539115646258499</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="F30">
-        <v>0.64285714285714202</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G30">
-        <v>0.43987110616442399</v>
+        <v>0.68300000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>0.22500000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="F31">
-        <v>0.71428571428571397</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="G31">
-        <v>0.430134037853176</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>0.29922192749778898</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="F32">
-        <v>0.54761904761904701</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="G32">
-        <v>0.41520214903916097</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>0.19869295746488699</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="F33">
-        <v>0.5</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="G33">
-        <v>0.409988913375604</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>0.20444646098003599</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G34">
-        <v>0.38237947543268103</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>0.209699475962633</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="F35">
-        <v>0.5</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G35">
-        <v>0.33743878504540498</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>0.17340891755079399</v>
+        <v>0.246</v>
       </c>
       <c r="F36">
-        <v>0.38095238095237999</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G36">
-        <v>0.31318003572862402</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0.246</v>
+      </c>
+      <c r="F37">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G37">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>0.246</v>
+      </c>
+      <c r="F38">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G38">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>8</v>
       </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>0.22082505595091401</v>
-      </c>
-      <c r="F37">
-        <v>0.42857142857142799</v>
-      </c>
-      <c r="G37">
-        <v>0.29961273292137103</v>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0.312</v>
+      </c>
+      <c r="F39">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G39">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0.312</v>
+      </c>
+      <c r="F40">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G40">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0.374</v>
+      </c>
+      <c r="F41">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G41">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0.374</v>
+      </c>
+      <c r="F42">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G42">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0.374</v>
+      </c>
+      <c r="F43">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G43">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F44">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G44">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F45">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G45">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="G46">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="F47">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G47">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F48">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G48">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F49">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G49">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.5</v>
+      </c>
+      <c r="G50">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="F51">
+        <v>0.5</v>
+      </c>
+      <c r="G51">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="F52">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G52">
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>0.31</v>
+      </c>
+      <c r="F53">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G53">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>0.496</v>
+      </c>
+      <c r="F54">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="G54">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>0.496</v>
+      </c>
+      <c r="F55">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="G55">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>0.187</v>
+      </c>
+      <c r="F56">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G56">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>0.317</v>
+      </c>
+      <c r="F57">
+        <v>0.5</v>
+      </c>
+      <c r="G57">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F58">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G58">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F59">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G59">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F60">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G60">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F61">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G61">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F62">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G62">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>0.317</v>
+      </c>
+      <c r="F63">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G63">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F64">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G64">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F65">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G65">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>0.312</v>
+      </c>
+      <c r="F66">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G66">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F67">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G67">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F68">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G68">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F69">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G69">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>0.316</v>
+      </c>
+      <c r="F70">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G70">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>0.316</v>
+      </c>
+      <c r="F71">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G71">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="F72">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>0.22</v>
+      </c>
+      <c r="F73">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G73">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>0.22</v>
+      </c>
+      <c r="F74">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G74">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>0.318</v>
+      </c>
+      <c r="F75">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G75">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>0.217</v>
+      </c>
+      <c r="F76">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F77">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G77">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>0.251</v>
+      </c>
+      <c r="F78">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G78">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>0.251</v>
+      </c>
+      <c r="F79">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G79">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F80">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="G80">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="F81">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G81">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>0.224</v>
+      </c>
+      <c r="F82">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G82">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G37">
-    <sortCondition descending="1" ref="G1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G86">
+    <sortCondition descending="1" ref="G52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C09D49-CCF0-4191-BE80-AA4898D5223D}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.81</v>
+      </c>
+      <c r="D3">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="C5">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>0.318</v>
+      </c>
+      <c r="C6">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="D10">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.625</v>
+      </c>
+      <c r="C12">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D12">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D13">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C17">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D17">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D18">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D19">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0.318</v>
+      </c>
+      <c r="C20">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D20">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>0.65</v>
+      </c>
+      <c r="C21">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D24">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="C25">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D26">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>0.318</v>
+      </c>
+      <c r="C27">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D27">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C28">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C31">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D31">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="C32">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D32">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D33">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>0.318</v>
+      </c>
+      <c r="C34">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D34">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C35">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D35">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C38">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D38">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="C40">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D40">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ClusteringComparisons.xlsx
+++ b/ClusteringComparisons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b75b1c6a55d49cb/College/JuniorYear/CS5140/GradeDataMiningProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\North\OneDrive\College\JuniorYear\CS5140\GradeDataMiningProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CF4C7A-A80C-4453-AFB4-06CB1459EB54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{38CF4C7A-A80C-4453-AFB4-06CB1459EB54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{EB20097B-6350-403B-AACA-02706EEBF672}"/>
   <bookViews>
-    <workbookView xWindow="11655" yWindow="1395" windowWidth="26100" windowHeight="16545" xr2:uid="{5202D031-F85A-4FE1-8F4D-4AC9EF6C0155}"/>
+    <workbookView xWindow="11655" yWindow="1395" windowWidth="26100" windowHeight="16545" activeTab="1" xr2:uid="{5202D031-F85A-4FE1-8F4D-4AC9EF6C0155}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="28">
   <si>
     <t>kmeans++</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Metric</t>
   </si>
   <si>
-    <t>FMI</t>
-  </si>
-  <si>
     <t>Grades</t>
   </si>
   <si>
@@ -113,6 +110,12 @@
   </si>
   <si>
     <t xml:space="preserve">CompleteLink </t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>Algorithms:</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BCB676-A1E0-4A74-B0E0-7BA2C07FDFD0}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +480,7 @@
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -511,99 +514,99 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0.31</v>
+      </c>
+      <c r="F3">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0.311</v>
+      </c>
+      <c r="F4">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.76700000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0.31</v>
+      </c>
+      <c r="F6">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -615,13 +618,13 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0.318</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="F7">
-        <v>0.95199999999999996</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G7">
-        <v>0.90400000000000003</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -638,13 +641,13 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F8">
-        <v>0.85699999999999998</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="G8">
-        <v>0.84</v>
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -661,13 +664,13 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0.29599999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="F9">
         <v>0.88100000000000001</v>
       </c>
       <c r="G9">
-        <v>0.83799999999999997</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -678,42 +681,42 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>0.29599999999999999</v>
+        <v>0.311</v>
       </c>
       <c r="F10">
-        <v>0.88100000000000001</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="G10">
-        <v>0.83799999999999997</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>0.29599999999999999</v>
+        <v>0.312</v>
       </c>
       <c r="F11">
-        <v>0.95199999999999996</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="G11">
-        <v>0.83799999999999997</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,116 +727,116 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0.29599999999999999</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="F12">
         <v>0.88100000000000001</v>
       </c>
       <c r="G12">
-        <v>0.83799999999999997</v>
+        <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>0.29599999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="F13">
         <v>0.88100000000000001</v>
       </c>
       <c r="G13">
-        <v>0.83799999999999997</v>
+        <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>0.29599999999999999</v>
+        <v>0.314</v>
       </c>
       <c r="F14">
         <v>0.88100000000000001</v>
       </c>
       <c r="G14">
-        <v>0.83799999999999997</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0.31900000000000001</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="F15">
-        <v>0.88100000000000001</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="G15">
-        <v>0.83499999999999996</v>
+        <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>0.32</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="F16">
-        <v>0.83299999999999996</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="G16">
-        <v>0.79300000000000004</v>
+        <v>0.70899999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -845,105 +848,87 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>0.32</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="F17">
-        <v>0.83299999999999996</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="G17">
-        <v>0.79300000000000004</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>0.32</v>
-      </c>
-      <c r="F18">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G18">
-        <v>0.79300000000000004</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>0.32</v>
-      </c>
-      <c r="F19">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G19">
-        <v>0.79300000000000004</v>
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>0.27400000000000002</v>
+        <v>0.31</v>
       </c>
       <c r="F20">
-        <v>0.95199999999999996</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="G20">
-        <v>0.77400000000000002</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>0.32100000000000001</v>
+        <v>0.317</v>
       </c>
       <c r="F21">
-        <v>0.81</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="G21">
-        <v>0.77400000000000002</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -971,10 +956,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -983,44 +968,44 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>0.30499999999999999</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="F23">
-        <v>0.83299999999999996</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="G23">
-        <v>0.75700000000000001</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>0.30499999999999999</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="F24">
-        <v>0.83299999999999996</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G24">
-        <v>0.75700000000000001</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1029,41 +1014,41 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>0.30499999999999999</v>
+        <v>0.317</v>
       </c>
       <c r="F25">
-        <v>0.83299999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.75700000000000001</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="B26">
+      <c r="D26">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
       <c r="E26">
-        <v>0.30499999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="F26">
-        <v>0.83299999999999996</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G26">
-        <v>0.75700000000000001</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1075,59 +1060,59 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>0.46300000000000002</v>
+        <v>0.316</v>
       </c>
       <c r="F27">
-        <v>0.88100000000000001</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="G27">
-        <v>0.71899999999999997</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>0.30199999999999999</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="F28">
-        <v>0.81</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="G28">
-        <v>0.70599999999999996</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>0.28499999999999998</v>
+        <v>0.314</v>
       </c>
       <c r="F29">
-        <v>0.83299999999999996</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G29">
-        <v>0.68700000000000006</v>
+        <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,64 +1129,64 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>0.27700000000000002</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F30">
-        <v>0.95199999999999996</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G30">
-        <v>0.68300000000000005</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
         <v>12</v>
       </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>0.32300000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="F31">
-        <v>0.64300000000000002</v>
+        <v>0.69</v>
       </c>
       <c r="G31">
-        <v>0.67700000000000005</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>0.32300000000000001</v>
+        <v>0.318</v>
       </c>
       <c r="F32">
-        <v>0.64300000000000002</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G32">
-        <v>0.67700000000000005</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -1213,128 +1198,110 @@
         <v>3</v>
       </c>
       <c r="E33">
-        <v>0.33900000000000002</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="F33">
-        <v>0.64300000000000002</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="G33">
-        <v>0.67500000000000004</v>
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>0.32700000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="F34">
-        <v>0.66700000000000004</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="G34">
-        <v>0.67</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="F35">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="G35">
-        <v>0.65500000000000003</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>0.246</v>
-      </c>
-      <c r="F36">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="G36">
-        <v>0.65500000000000003</v>
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37">
-        <v>0.246</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="F37">
-        <v>0.95199999999999996</v>
+        <v>0.81</v>
       </c>
       <c r="G37">
-        <v>0.65500000000000003</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38">
-        <v>0.246</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="F38">
-        <v>0.95199999999999996</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G38">
-        <v>0.65500000000000003</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1351,87 +1318,87 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <v>0.312</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F39">
-        <v>0.64300000000000002</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G39">
-        <v>0.64600000000000002</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>0.312</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="F40">
-        <v>0.64300000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G40">
-        <v>0.64600000000000002</v>
+        <v>0.68700000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>0.374</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="F41">
-        <v>0.88100000000000001</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G41">
-        <v>0.628</v>
+        <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>0.374</v>
+        <v>0.66</v>
       </c>
       <c r="F42">
-        <v>0.88100000000000001</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G42">
-        <v>0.628</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1443,13 +1410,13 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>0.374</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F43">
         <v>0.88100000000000001</v>
       </c>
       <c r="G43">
-        <v>0.628</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1460,42 +1427,42 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44">
-        <v>0.32500000000000001</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="F44">
-        <v>0.57099999999999995</v>
+        <v>0.81</v>
       </c>
       <c r="G44">
-        <v>0.621</v>
+        <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45">
-        <v>0.33200000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="F45">
-        <v>0.57099999999999995</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G45">
-        <v>0.61599999999999999</v>
+        <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1506,19 +1473,19 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>0.32800000000000001</v>
+        <v>0.318</v>
       </c>
       <c r="F46">
-        <v>0.52400000000000002</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G46">
-        <v>0.60199999999999998</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1529,70 +1496,70 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47">
-        <v>0.45900000000000002</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="F47">
-        <v>0.78600000000000003</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G47">
-        <v>0.59499999999999997</v>
+        <v>0.68300000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48">
-        <v>0.24299999999999999</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="F48">
-        <v>0.83299999999999996</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G48">
-        <v>0.59</v>
+        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>0.24299999999999999</v>
+        <v>0.374</v>
       </c>
       <c r="F49">
-        <v>0.83299999999999996</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G49">
-        <v>0.59</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -1604,90 +1571,72 @@
         <v>3</v>
       </c>
       <c r="E50">
-        <v>0.32700000000000001</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="F50">
-        <v>0.5</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G50">
-        <v>0.58499999999999996</v>
+        <v>0.71899999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51">
-        <v>0.32700000000000001</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="F51">
-        <v>0.5</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G51">
-        <v>0.58499999999999996</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="F52">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="G52">
-        <v>0.58099999999999996</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53">
-        <v>0.31</v>
-      </c>
-      <c r="F53">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="G53">
-        <v>0.57399999999999995</v>
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -1696,64 +1645,64 @@
         <v>3</v>
       </c>
       <c r="E54">
-        <v>0.496</v>
+        <v>0.316</v>
       </c>
       <c r="F54">
-        <v>0.61899999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="G54">
-        <v>0.56699999999999995</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55">
-        <v>0.496</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="F55">
-        <v>0.61899999999999999</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G55">
-        <v>0.56699999999999995</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56">
-        <v>0.187</v>
+        <v>0.312</v>
       </c>
       <c r="F56">
-        <v>0.95199999999999996</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="G56">
-        <v>0.56499999999999995</v>
+        <v>0.64600000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -1765,41 +1714,41 @@
         <v>3</v>
       </c>
       <c r="E57">
-        <v>0.317</v>
+        <v>0.22</v>
       </c>
       <c r="F57">
-        <v>0.5</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G57">
-        <v>0.56399999999999995</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58">
-        <v>0.26700000000000002</v>
+        <v>0.251</v>
       </c>
       <c r="F58">
-        <v>0.83299999999999996</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="G58">
-        <v>0.56399999999999995</v>
+        <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -1811,105 +1760,105 @@
         <v>3</v>
       </c>
       <c r="E59">
-        <v>0.26700000000000002</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="F59">
         <v>0.83299999999999996</v>
       </c>
       <c r="G59">
-        <v>0.56399999999999995</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>0.26700000000000002</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F60">
-        <v>0.83299999999999996</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G60">
-        <v>0.56399999999999995</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61">
-        <v>0.26700000000000002</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="F61">
-        <v>0.83299999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G61">
-        <v>0.56399999999999995</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62">
-        <v>0.24399999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="F62">
-        <v>0.88100000000000001</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G62">
-        <v>0.56200000000000006</v>
+        <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63">
-        <v>0.317</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F63">
-        <v>0.47599999999999998</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G63">
-        <v>0.56000000000000005</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1943,65 +1892,65 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65">
-        <v>0.30499999999999999</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="F65">
-        <v>0.71399999999999997</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G65">
-        <v>0.55700000000000005</v>
+        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
         <v>8</v>
       </c>
-      <c r="B66">
+      <c r="D66">
         <v>2</v>
       </c>
-      <c r="C66" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
       <c r="E66">
-        <v>0.312</v>
+        <v>0.374</v>
       </c>
       <c r="F66">
-        <v>0.59499999999999997</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G66">
-        <v>0.55300000000000005</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
         <v>9</v>
       </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67">
-        <v>0.26400000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="F67">
-        <v>0.83299999999999996</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="G67">
-        <v>0.55000000000000004</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2012,377 +1961,32 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68">
-        <v>0.42899999999999999</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="F68">
-        <v>0.73799999999999999</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G68">
-        <v>0.54800000000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69">
-        <v>3</v>
-      </c>
-      <c r="E69">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="F69">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G69">
-        <v>0.53700000000000003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70">
-        <v>3</v>
-      </c>
-      <c r="E70">
-        <v>0.316</v>
-      </c>
-      <c r="F70">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="G70">
-        <v>0.53400000000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="E71">
-        <v>0.316</v>
-      </c>
-      <c r="F71">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="G71">
-        <v>0.53400000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="F72">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="G72">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73">
-        <v>0.22</v>
-      </c>
-      <c r="F73">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G73">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>0.22</v>
-      </c>
-      <c r="F74">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G74">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-      <c r="E75">
-        <v>0.318</v>
-      </c>
-      <c r="F75">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="G75">
-        <v>0.51700000000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
-      </c>
-      <c r="E76">
-        <v>0.217</v>
-      </c>
-      <c r="F76">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G76">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="F77">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="G77">
-        <v>0.48399999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78">
-        <v>0.251</v>
-      </c>
-      <c r="F78">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="G78">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79">
-        <v>0.251</v>
-      </c>
-      <c r="F79">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="G79">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-      <c r="E80">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="F80">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="G80">
-        <v>0.443</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81">
-        <v>3</v>
-      </c>
-      <c r="E81">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="F81">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="G81">
-        <v>0.434</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82">
-        <v>3</v>
-      </c>
-      <c r="E82">
-        <v>0.224</v>
-      </c>
-      <c r="F82">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="G82">
-        <v>0.371</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>16</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G86">
-    <sortCondition descending="1" ref="G52"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C09D49-CCF0-4191-BE80-AA4898D5223D}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A2:D49"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,397 +1994,401 @@
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.81</v>
-      </c>
-      <c r="D3">
-        <v>0.65200000000000002</v>
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>0.55100000000000005</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="C5">
-        <v>0.90500000000000003</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="D5">
-        <v>0.64400000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.318</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="C6">
-        <v>0.95199999999999996</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D6">
-        <v>0.90400000000000003</v>
+        <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.69</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.69</v>
+      </c>
+      <c r="D8">
+        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="C10">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="D10">
-        <v>0.85699999999999998</v>
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="C11">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="D11">
-        <v>0.7</v>
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="C12">
-        <v>0.66700000000000004</v>
+        <v>0.69</v>
       </c>
       <c r="D12">
-        <v>0.59</v>
+        <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0.32600000000000001</v>
+        <v>0.312</v>
       </c>
       <c r="C13">
-        <v>0.95199999999999996</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D13">
-        <v>0.92800000000000005</v>
+        <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>0.61099999999999999</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="C14">
-        <v>0.88100000000000001</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D14">
-        <v>0.68899999999999995</v>
+        <v>0.69199999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="C16">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.752</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>0.59299999999999997</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="C17">
-        <v>0.97599999999999998</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="D17">
-        <v>0.78400000000000003</v>
+        <v>0.69299999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="C18">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="D18">
-        <v>0.58499999999999996</v>
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="C19">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="D19">
-        <v>0.92600000000000005</v>
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>0.318</v>
+        <v>0.54</v>
       </c>
       <c r="C20">
-        <v>0.95199999999999996</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="D20">
-        <v>0.90400000000000003</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>0.65</v>
+        <v>0.246</v>
       </c>
       <c r="C21">
-        <v>0.88100000000000001</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D21">
-        <v>0.71399999999999997</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="C22">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D23">
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>0.75800000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="C24">
-        <v>0.83299999999999996</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D24">
-        <v>0.746</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.52600000000000002</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="C25">
-        <v>0.97599999999999998</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D25">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="C26">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="D26">
-        <v>0.65500000000000003</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27">
-        <v>0.318</v>
-      </c>
-      <c r="C27">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="D27">
-        <v>0.90400000000000003</v>
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>0.59299999999999997</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="C28">
-        <v>0.88100000000000001</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D28">
-        <v>0.68100000000000005</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="C29">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D29">
+        <v>0.7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="C30">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D30">
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2788,161 +2396,259 @@
         <v>21</v>
       </c>
       <c r="B31">
-        <v>0.59299999999999997</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="C31">
-        <v>0.97599999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D31">
-        <v>0.78400000000000003</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>0.52600000000000002</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="C32">
-        <v>0.97599999999999998</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D32">
-        <v>0.7</v>
+        <v>0.68100000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>0.72499999999999998</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="C33">
-        <v>0.97599999999999998</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D33">
-        <v>0.92600000000000005</v>
+        <v>0.69099999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34">
-        <v>0.318</v>
-      </c>
-      <c r="C34">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="D34">
-        <v>0.90400000000000003</v>
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="C35">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="D35">
-        <v>0.68100000000000005</v>
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C36">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D36">
+        <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="C37">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D37">
+        <v>0.7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B38">
-        <v>0.53100000000000003</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="C38">
         <v>0.97599999999999998</v>
       </c>
       <c r="D38">
-        <v>0.70499999999999996</v>
+        <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>0.55700000000000005</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="C40">
-        <v>0.97599999999999998</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D40">
-        <v>0.71799999999999997</v>
+        <v>0.68100000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C44">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D44">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="C46">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D46">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>13</v>
       </c>
-      <c r="B42">
+      <c r="B48">
         <v>1</v>
       </c>
-      <c r="C42">
+      <c r="C48">
         <v>1</v>
       </c>
-      <c r="D42">
+      <c r="D48">
         <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="C49">
+        <v>0.99</v>
+      </c>
+      <c r="D49">
+        <v>0.88500000000000001</v>
       </c>
     </row>
   </sheetData>
